--- a/IMS/App_Data/Department.xlsx
+++ b/IMS/App_Data/Department.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biges\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMS\IMS\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>Guid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,27 +33,366 @@
     <t>e4b34e5f-b2db-4581-91ac-cc37757b3c4e</t>
   </si>
   <si>
+    <t>89457f86-fdf1-4962-b267-4b2eb2609c64</t>
+  </si>
+  <si>
+    <t>462067d8-f203-43fd-b773-7d77f5cb2c82</t>
+  </si>
+  <si>
+    <t>3d96559c-6bb0-4856-95f9-3fceb7a91182</t>
+  </si>
+  <si>
+    <t>4cffc83d-812a-412c-8e00-c8bd78d421a0</t>
+  </si>
+  <si>
+    <t>dccf942d-8ee8-4671-bf14-1ac826af431d</t>
+  </si>
+  <si>
+    <t>c57f8e1d-ee88-49fe-b822-42b88d13158c</t>
+  </si>
+  <si>
+    <t>84c3f398-b953-4bf0-b828-d94267fb1efb</t>
+  </si>
+  <si>
+    <t>血透室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b33b9446-5ac1-45a1-98f5-6e1ea78fe6a3</t>
+  </si>
+  <si>
+    <t>9d9b2cf2-24aa-4098-88ea-df85ef9aaa7c</t>
+  </si>
+  <si>
+    <t>765d9cc5-0d67-4231-a097-6e5b86b00bf0</t>
+  </si>
+  <si>
+    <t>a3b12bb0-29bd-411a-b236-3bfb367c7772</t>
+  </si>
+  <si>
+    <t>儿科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术科室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>988a24f4-e0dc-4c66-a378-d2f87cc16200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳腺肿瘤外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d616d0a6-ab57-4859-98c5-c1e1e4400f8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾病风湿病科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非手术科室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e4b17807-a6af-4122-90d6-959e2a46b69f</t>
+  </si>
+  <si>
+    <t>1e098d55-1b98-4169-8065-e94c929f0dfa</t>
+  </si>
+  <si>
+    <t>785624da-1574-483e-92ab-c01fa9f035d3</t>
+  </si>
+  <si>
+    <t>554d09d4-248f-438e-9a17-39d29e5d2316</t>
+  </si>
+  <si>
+    <t>03df749a-4434-4fe6-8c01-9e5d0ca8261f</t>
+  </si>
+  <si>
+    <t>c0625d68-4534-4342-a183-7322d9bcefc8</t>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管内科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8fc38fc8-affe-4c94-9201-25c1fee8fd86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非手术科室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97b875f6-edc8-4b5b-b1f3-8d0a3b494160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化内科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79de2f7f-ab28-4566-8f2e-1be60ffba7da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内分泌内科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cc22be1d-4322-49d2-8491-4a1400ad7899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>呼吸内科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2dc7d058-c2cb-4d47-a696-b731d042e967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经内科一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ebb4d0d-6821-462c-a22b-06b12c154c23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经内科二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac991f55-4bc9-41bf-b2d4-659fa13822c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干部病区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7383924-9cbc-49ff-b52c-c685fc5de0d6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤内科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c915ac1c-22e7-480a-abc1-c2a90066ad56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液内科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b02af06-291d-4bfe-913f-d39f503eefa0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>690bdefd-b73b-4c94-af03-95d25f441f23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55c99181-4756-433b-9459-c3d889cc8ac2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊内科病区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案统计室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗质量控制管理部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药学部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总监办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康复医学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康复医学科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉科系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>手术科室系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5ac19463-5fba-4e0b-b47b-81b6304fe2ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳鼻咽喉头颈外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec047232-f2ca-4ec1-9013-27b3faf84283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃肠外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08def959-ae22-476c-91ea-efd054bf4216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝胆小儿外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5104805a-4209-434c-be00-ac5d886afa7c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7e2a26d2-fa25-454a-9428-2846c758a240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妇科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手术科室系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e902c0a-7adc-462d-81a3-2f5d7a44df78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心胸外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06486b13-9c17-43cf-8c78-bae21691f8d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手足整形血管外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99147b12-ba7e-4c8f-b488-6c42b69f671a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>眼科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神经内科一</t>
+    <t>f2166bfa-7a40-4696-8a57-02fa9a774e4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9947c2db-82a8-4b45-bb9e-e01602ed89f2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,15 +400,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>干部病区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血液内科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤科</t>
+    <t>33323e95-ffc2-4b0b-8b78-d9e2a1ffa566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介入血管科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救创伤外科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血透室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院级系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,375 +428,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89457f86-fdf1-4962-b267-4b2eb2609c64</t>
-  </si>
-  <si>
-    <t>462067d8-f203-43fd-b773-7d77f5cb2c82</t>
-  </si>
-  <si>
-    <t>3d96559c-6bb0-4856-95f9-3fceb7a91182</t>
-  </si>
-  <si>
-    <t>4cffc83d-812a-412c-8e00-c8bd78d421a0</t>
-  </si>
-  <si>
-    <t>dccf942d-8ee8-4671-bf14-1ac826af431d</t>
-  </si>
-  <si>
-    <t>c57f8e1d-ee88-49fe-b822-42b88d13158c</t>
-  </si>
-  <si>
-    <t>84c3f398-b953-4bf0-b828-d94267fb1efb</t>
-  </si>
-  <si>
-    <t>血透室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血透室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b33b9446-5ac1-45a1-98f5-6e1ea78fe6a3</t>
-  </si>
-  <si>
-    <t>9d9b2cf2-24aa-4098-88ea-df85ef9aaa7c</t>
-  </si>
-  <si>
-    <t>放射科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>765d9cc5-0d67-4231-a097-6e5b86b00bf0</t>
-  </si>
-  <si>
-    <t>急诊科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3b12bb0-29bd-411a-b236-3bfb367c7772</t>
-  </si>
-  <si>
-    <t>科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康复医学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康复医学科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心血管内科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8fc38fc8-affe-4c94-9201-25c1fee8fd86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97b875f6-edc8-4b5b-b1f3-8d0a3b494160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消化内科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79de2f7f-ab28-4566-8f2e-1be60ffba7da</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc22be1d-4322-49d2-8491-4a1400ad7899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2dc7d058-c2cb-4d47-a696-b731d042e967</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泌尿外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ac19463-5fba-4e0b-b47b-81b6304fe2ca</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳鼻咽喉头颈外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ec047232-f2ca-4ec1-9013-27b3faf84283</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃肠外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08def959-ae22-476c-91ea-efd054bf4216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肝胆小儿外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5104805a-4209-434c-be00-ac5d886afa7c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7e2a26d2-fa25-454a-9428-2846c758a240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8e902c0a-7adc-462d-81a3-2f5d7a44df78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心胸外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06486b13-9c17-43cf-8c78-bae21691f8d5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手足整形血管外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>988a24f4-e0dc-4c66-a378-d2f87cc16200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺肿瘤外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99147b12-ba7e-4c8f-b488-6c42b69f671a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2166bfa-7a40-4696-8a57-02fa9a774e4a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7ebb4d0d-6821-462c-a22b-06b12c154c23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经内科二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac991f55-4bc9-41bf-b2d4-659fa13822c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9947c2db-82a8-4b45-bb9e-e01602ed89f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33323e95-ffc2-4b0b-8b78-d9e2a1ffa566</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7383924-9cbc-49ff-b52c-c685fc5de0d6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介入血管科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d616d0a6-ab57-4859-98c5-c1e1e4400f8a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肿瘤内科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c915ac1c-22e7-480a-abc1-c2a90066ad56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4b02af06-291d-4bfe-913f-d39f503eefa0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>690bdefd-b73b-4c94-af03-95d25f441f23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肾病风湿病科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55c99181-4756-433b-9459-c3d889cc8ac2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重症医学科系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急救创伤外科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊内科病区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非手术科室系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院级系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病理科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病理科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放射科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊科系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e4b17807-a6af-4122-90d6-959e2a46b69f</t>
-  </si>
-  <si>
-    <t>病案统计室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e098d55-1b98-4169-8065-e94c929f0dfa</t>
-  </si>
-  <si>
-    <t>医疗质量控制管理部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>785624da-1574-483e-92ab-c01fa9f035d3</t>
-  </si>
-  <si>
-    <t>药学部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>554d09d4-248f-438e-9a17-39d29e5d2316</t>
-  </si>
-  <si>
-    <t>总监办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03df749a-4434-4fe6-8c01-9e5d0ca8261f</t>
-  </si>
-  <si>
-    <t>门诊部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0625d68-4534-4342-a183-7322d9bcefc8</t>
   </si>
 </sst>
 </file>
@@ -824,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -835,35 +819,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,29 +855,29 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -904,241 +888,241 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1146,10 +1130,10 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,10 +1141,10 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,10 +1152,10 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,84 +1166,84 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,43 +1251,43 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
